--- a/Code_Alex/Revue de literature - modele collectif du risque.xlsx
+++ b/Code_Alex/Revue de literature - modele collectif du risque.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Recherche_ete_2019\Code_Alex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DBD0D1-89D7-4F70-A221-F4C8D2F58737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39474722-8E29-496A-AF61-058347DA7583}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24154" yWindow="7000" windowWidth="24267" windowHeight="13147" xr2:uid="{4470393C-3FEE-47F6-9072-66F33A5DE7C5}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{4470393C-3FEE-47F6-9072-66F33A5DE7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison des articles" sheetId="1" r:id="rId1"/>
     <sheet name="Présentation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Comparaison des articles'!$B$2:$I$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="60">
   <si>
     <t>Variables aléatoires</t>
   </si>
   <si>
-    <t>N et M</t>
-  </si>
-  <si>
     <t>N et {Y1,…,YN}</t>
   </si>
   <si>
@@ -55,9 +55,6 @@
     <t>Dépendance</t>
   </si>
   <si>
-    <t>Archimédiennes</t>
-  </si>
-  <si>
     <t>gaussienne/student</t>
   </si>
   <si>
@@ -67,18 +64,9 @@
     <t>Oh et al., 2019b</t>
   </si>
   <si>
-    <t>Hernandez : Correlated random effect ?</t>
-  </si>
-  <si>
     <t>Particularités</t>
   </si>
   <si>
-    <t>Explique en détail comment utiliser la copule gaussienne et la copule de student pour modéliser la dépendance entre N et Y1,…,YN</t>
-  </si>
-  <si>
-    <t>Présente à la fois une approche avec une copule archimédienne hiérarchique et une autre avec des mélanges d'Erlangs.</t>
-  </si>
-  <si>
     <t>Collective Risk Models with Dependence</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>A Mixed Copula Model  for Insurance Claims and Claim Sizes</t>
   </si>
   <si>
-    <t>Czado et al., 2012 - Maximization by parts ?</t>
-  </si>
-  <si>
     <t>Articles</t>
   </si>
   <si>
@@ -121,12 +106,6 @@
     <t>Total loss estimation using copula-based regression models</t>
   </si>
   <si>
-    <t>Krämer et al., 2012</t>
-  </si>
-  <si>
-    <t>Propose une approche pour choisir la copule à utiliser dans le contexte d'une copule bivariée entre N et M.</t>
-  </si>
-  <si>
     <t>The net Bayes premium with dependence between the risk profiles</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t>Hernandez-Bastida et al., 2009</t>
   </si>
   <si>
-    <t>Shared random effect</t>
-  </si>
-  <si>
     <t>Copules archimédiennes-hiérarchiques</t>
   </si>
   <si>
@@ -175,9 +151,6 @@
     <t>Finalement, Hofert et al., 2013 propose une méthode d'estimation du maximum de vraisemblance à l'aide de "la diagonale de la copule" (DMLE). Cette méthode, bien que rapide n'offre pas une précision exceptionnelle…Hofert la recommande pour trouver des valeurs de départ à une méthode plus précise...</t>
   </si>
   <si>
-    <t>La méthoide des moments en inversant le tau de Kendall ne fonctionne pas pour trouver le paramètre de la loi de B, car le tau de Kendall de B est fortement influencé par le niveau de dépendance indue par M.</t>
-  </si>
-  <si>
     <t>Cependant, le modèle demeure plus précis avec un glm Tweedie qu'avec la Copule, même si la dépendance est relativement élevée (coefficient de corrélation autour de 0.2 autant pour (N,Y) que pour (Yi, Yj)… J'ai peut-être fait une erreur de programmation...J'ai passé une semaine entière à essayer d'augmenter la précision de mes prédictions.</t>
   </si>
   <si>
@@ -190,23 +163,167 @@
     <t>Baumgartner et al., 2015</t>
   </si>
   <si>
-    <t>"two-step frequency-severity"*</t>
-  </si>
-  <si>
-    <t>* Conditionnal probability : On insère le résultat de N comme une variable explicative de Y.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilise la distribution bivariée de Samarnov-Lee pour insérer une structure de dépendance entre les distributions a priori des marginales afin de calculer la prime a posteriori avec l'approche bayésienne. </t>
-  </si>
-  <si>
-    <t>Utilise le modèle de probabilités conditionnelles pour la prime a posteriori et un modèle avec copules gaussiennes bivariée pour la prime a priori dans un contexte de calcul de prime BMS (Bonus/malus)</t>
+    <t>Utilise la distribution bivariée de Samarnov-Lee pour insérer une structure de dépendance entre les profiles de risques (les paramètres de N et Y) suivant l'approche bayésienne</t>
+  </si>
+  <si>
+    <t>N et M *</t>
+  </si>
+  <si>
+    <t>Utilise le modèle de probabilités conditionnelles pour la prime a priori et un modèle avec copules gaussiennes bivariée pour créer un effet aléatoire corrélé (correlated random effect) entre les charactéristiques de risques non observés liées à N et M lors du calcul de la prime a posterioti.</t>
+  </si>
+  <si>
+    <t>Frees et al., 2016</t>
+  </si>
+  <si>
+    <t>Dependant frequency-severity models of insurance claims</t>
+  </si>
+  <si>
+    <t>Multivariate frequency-severity regression models in insurance</t>
+  </si>
+  <si>
+    <t>Krämer et al., 2013</t>
+  </si>
+  <si>
+    <t>Présente à la fois une approche avec une copule archimédienne hiérarchique et une autre avec des mélanges d'Erlangs pour trouver la distribution conjointe de N avec {Y1,…,Yn}.</t>
+  </si>
+  <si>
+    <t>Explique en détail comment utiliser la copule gaussienne et la copule de student pour modéliser la dépendance entre N et {Y1,…,YN}.</t>
+  </si>
+  <si>
+    <t>Explique vraiment bien comment mettre en place un modèle utilisant des glm pour les lois marginales et une copule pour créer la structure de dépendance. Propose également une approche pour choisir la copule à utiliser dans le contexte d'une copule bivariée entre N et M basée sur le ratio de vraisemblance. Pose aussi une méthode pour faire le pont entre les GLMM et les mélanges d'Erlangs. Un most à lire !</t>
+  </si>
+  <si>
+    <t>Dans un GLM, incorpore une variable explicative supplémentaire qui est commune aux glm des lois marginales. Par la suite, utilise l'approche bayésienne pour calculer la prime d'un assuré. Afin d'estimer ses paramètres, il utilise la méthode de "Markov Chains Monte Carlo" (MCMC). Finalement, il compare son modèle avec celui proposé dans Kramer et al., 2013 pour venir à la conclusion que son modèle est meilleur puisqu'il permet d'avoir différents niveaux de dépendances selon la classe de risque. Très intéressant ...</t>
+  </si>
+  <si>
+    <t>La méthode des moments en inversant le tau de Kendall ne fonctionne pas pour trouver le paramètre de la loi de B, car le tau de Kendall de B est fortement influencé par le niveau de dépendance indue par M.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>désigne la moyenne des montants de sinistre</t>
+    </r>
+  </si>
+  <si>
+    <t>archimédiennes</t>
+  </si>
+  <si>
+    <t>Effet aléatoire partagé **</t>
+  </si>
+  <si>
+    <t>Probabilités conditionnelles ***</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">** Effet aléatoire partagé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shared random effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : Dans un contexte de calcul de prime bayésienne, la dépendance est induite dans la paramétrisation des lois marginales. On utilise donc une variable aléatoire commune aux deux lois marginales, ou encore, on utilise une copule pour lier les distributions a posteriori.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">***  Probabilités conditionnelles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Two-step frequency-severity)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: On insère le résultat de N comme une variable explicative de M.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +347,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,8 +382,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,9 +404,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -280,7 +425,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -291,16 +436,7 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -311,37 +447,45 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -350,8 +494,65 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -360,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,79 +572,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,437 +990,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F41A81-C4F3-4C0C-808E-49B3FBB96D3D}">
-  <dimension ref="A1:P33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="9" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="K2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="42"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="27"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="6" customFormat="1" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="K7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="29" t="s">
+    </row>
+    <row r="10" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="6" customFormat="1" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="6" customFormat="1" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="K13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="6.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" ht="18.2" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I1:P3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="9">
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="K2:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1197,84 +1443,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC822FBA-B88A-4B7F-A2FF-B860F678352C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="133.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="133.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45.1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45.1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>46</v>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45.1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45.1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
